--- a/team_lista.xlsx
+++ b/team_lista.xlsx
@@ -15327,7 +15327,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>

--- a/team_lista.xlsx
+++ b/team_lista.xlsx
@@ -15327,7 +15327,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
